--- a/data/pytest_data_v1.xlsx
+++ b/data/pytest_data_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jess9\Documents\Co-opDocuments\UHN\JupyterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA839B4C-00C8-4B20-9269-33393A9860FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC89B78-584A-4776-A682-7D12009B8B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4784587D-BF86-483F-A4DD-B2F93D88FED1}"/>
   </bookViews>
@@ -360,9 +360,6 @@
     <t>ABC-01-01</t>
   </si>
   <si>
-    <t>2022 JUNE</t>
-  </si>
-  <si>
     <t>2023 FEB 01</t>
   </si>
   <si>
@@ -426,15 +423,6 @@
     <t>Not Reported</t>
   </si>
   <si>
-    <t>2022 AUGUST</t>
-  </si>
-  <si>
-    <t>2025 JUNE</t>
-  </si>
-  <si>
-    <t>2022 JULY</t>
-  </si>
-  <si>
     <t>2024 JAN 11</t>
   </si>
   <si>
@@ -475,6 +463,18 @@
   </si>
   <si>
     <t>IRINOTECAN,IRINOTECAN</t>
+  </si>
+  <si>
+    <t>2022 JUNE 1</t>
+  </si>
+  <si>
+    <t>2022 AUGUST 1</t>
+  </si>
+  <si>
+    <t>2025 JUNE 1</t>
+  </si>
+  <si>
+    <t>2022 JULY 1</t>
   </si>
 </sst>
 </file>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0FF01E2-D361-4B1D-99CD-32A67D20A3F6}">
   <dimension ref="A1:CW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CX9" sqref="CX9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1144,7 +1144,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -1174,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
         <v>103</v>
@@ -1192,7 +1192,7 @@
         <v>104</v>
       </c>
       <c r="T2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" t="s">
         <v>105</v>
@@ -1201,13 +1201,13 @@
         <v>106</v>
       </c>
       <c r="W2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X2">
         <v>4.8</v>
       </c>
       <c r="Y2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z2">
         <v>0.11</v>
@@ -1216,7 +1216,7 @@
         <v>0.11</v>
       </c>
       <c r="AB2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC2">
         <v>0.11</v>
@@ -1225,7 +1225,7 @@
         <v>0.11</v>
       </c>
       <c r="AE2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF2">
         <v>0.11</v>
@@ -1234,7 +1234,7 @@
         <v>0.11</v>
       </c>
       <c r="AH2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI2">
         <v>0.11</v>
@@ -1243,7 +1243,7 @@
         <v>0.11</v>
       </c>
       <c r="AK2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL2">
         <v>0.11</v>
@@ -1252,7 +1252,7 @@
         <v>0.11</v>
       </c>
       <c r="AN2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO2">
         <v>0.11</v>
@@ -1261,7 +1261,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR2">
         <v>0.11</v>
@@ -1270,7 +1270,7 @@
         <v>0.11</v>
       </c>
       <c r="AT2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU2">
         <v>0.11</v>
@@ -1279,143 +1279,143 @@
         <v>0.11</v>
       </c>
       <c r="AW2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2">
+        <v>0.11</v>
+      </c>
+      <c r="AY2">
+        <v>0.11</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2">
+        <v>0.11</v>
+      </c>
+      <c r="BB2">
+        <v>0.11</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD2">
+        <v>0.11</v>
+      </c>
+      <c r="BE2">
+        <v>0.11</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG2">
+        <v>0.11</v>
+      </c>
+      <c r="BH2">
+        <v>0.11</v>
+      </c>
+      <c r="BI2" t="s">
         <v>114</v>
       </c>
-      <c r="AX2">
-        <v>0.11</v>
-      </c>
-      <c r="AY2">
-        <v>0.11</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BJ2">
+        <v>0.11</v>
+      </c>
+      <c r="BK2">
+        <v>0.11</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2">
+        <v>0.11</v>
+      </c>
+      <c r="BN2">
+        <v>0.11</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP2">
+        <v>0.11</v>
+      </c>
+      <c r="BQ2">
+        <v>0.11</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS2">
+        <v>0.11</v>
+      </c>
+      <c r="BT2">
+        <v>0.11</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV2">
+        <v>0.11</v>
+      </c>
+      <c r="BW2">
+        <v>0.11</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY2">
+        <v>0.11</v>
+      </c>
+      <c r="BZ2">
+        <v>0.11</v>
+      </c>
+      <c r="CA2" t="s">
         <v>114</v>
       </c>
-      <c r="BA2">
-        <v>0.11</v>
-      </c>
-      <c r="BB2">
-        <v>0.11</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD2">
-        <v>0.11</v>
-      </c>
-      <c r="BE2">
-        <v>0.11</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG2">
-        <v>0.11</v>
-      </c>
-      <c r="BH2">
-        <v>0.11</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="CB2">
+        <v>0.11</v>
+      </c>
+      <c r="CC2">
+        <v>0.11</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE2">
+        <v>0.11</v>
+      </c>
+      <c r="CF2">
+        <v>0.11</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH2">
+        <v>0.11</v>
+      </c>
+      <c r="CI2">
+        <v>0.11</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK2">
+        <v>0.11</v>
+      </c>
+      <c r="CL2">
+        <v>0.11</v>
+      </c>
+      <c r="CM2" t="s">
         <v>115</v>
       </c>
-      <c r="BJ2">
-        <v>0.11</v>
-      </c>
-      <c r="BK2">
-        <v>0.11</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM2">
-        <v>0.11</v>
-      </c>
-      <c r="BN2">
-        <v>0.11</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP2">
-        <v>0.11</v>
-      </c>
-      <c r="BQ2">
-        <v>0.11</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS2">
-        <v>0.11</v>
-      </c>
-      <c r="BT2">
-        <v>0.11</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV2">
-        <v>0.11</v>
-      </c>
-      <c r="BW2">
-        <v>0.11</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY2">
-        <v>0.11</v>
-      </c>
-      <c r="BZ2">
-        <v>0.11</v>
-      </c>
-      <c r="CA2" t="s">
+      <c r="CN2">
+        <v>0.11</v>
+      </c>
+      <c r="CO2">
+        <v>0.11</v>
+      </c>
+      <c r="CP2" t="s">
         <v>115</v>
       </c>
-      <c r="CB2">
-        <v>0.11</v>
-      </c>
-      <c r="CC2">
-        <v>0.11</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE2">
-        <v>0.11</v>
-      </c>
-      <c r="CF2">
-        <v>0.11</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH2">
-        <v>0.11</v>
-      </c>
-      <c r="CI2">
-        <v>0.11</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK2">
-        <v>0.11</v>
-      </c>
-      <c r="CL2">
-        <v>0.11</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN2">
-        <v>0.11</v>
-      </c>
-      <c r="CO2">
-        <v>0.11</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>116</v>
-      </c>
       <c r="CQ2">
         <v>0.11</v>
       </c>
@@ -1423,30 +1423,30 @@
         <v>0.11</v>
       </c>
       <c r="CS2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CT2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="CU2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CV2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW2" t="s">
         <v>119</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -1485,25 +1485,25 @@
         <v>103</v>
       </c>
       <c r="S3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U3" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W3" t="s">
         <v>110</v>
-      </c>
-      <c r="U3" t="s">
-        <v>139</v>
-      </c>
-      <c r="V3" t="s">
-        <v>140</v>
-      </c>
-      <c r="W3" t="s">
-        <v>111</v>
       </c>
       <c r="X3">
         <v>4.8</v>
       </c>
       <c r="Y3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z3">
         <v>0.11</v>
@@ -1512,7 +1512,7 @@
         <v>0.11</v>
       </c>
       <c r="AB3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC3">
         <v>0.11</v>
@@ -1521,7 +1521,7 @@
         <v>0.11</v>
       </c>
       <c r="AE3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF3">
         <v>0.11</v>
@@ -1530,7 +1530,7 @@
         <v>0.11</v>
       </c>
       <c r="AH3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI3">
         <v>0.11</v>
@@ -1539,7 +1539,7 @@
         <v>0.11</v>
       </c>
       <c r="AK3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL3">
         <v>0.11</v>
@@ -1548,7 +1548,7 @@
         <v>0.11</v>
       </c>
       <c r="AN3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO3">
         <v>0.11</v>
@@ -1557,7 +1557,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR3">
         <v>0.11</v>
@@ -1566,7 +1566,7 @@
         <v>0.11</v>
       </c>
       <c r="AT3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU3">
         <v>0.11</v>
@@ -1575,171 +1575,171 @@
         <v>0.11</v>
       </c>
       <c r="AW3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX3">
+        <v>0.11</v>
+      </c>
+      <c r="AY3">
+        <v>0.11</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA3">
+        <v>0.11</v>
+      </c>
+      <c r="BB3">
+        <v>0.11</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD3">
+        <v>0.11</v>
+      </c>
+      <c r="BE3">
+        <v>0.11</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG3">
+        <v>0.11</v>
+      </c>
+      <c r="BH3">
+        <v>0.11</v>
+      </c>
+      <c r="BI3" t="s">
         <v>114</v>
       </c>
-      <c r="AX3">
-        <v>0.11</v>
-      </c>
-      <c r="AY3">
-        <v>0.11</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="BJ3">
+        <v>0.11</v>
+      </c>
+      <c r="BK3">
+        <v>0.11</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM3">
+        <v>0.11</v>
+      </c>
+      <c r="BN3">
+        <v>0.11</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP3">
+        <v>0.11</v>
+      </c>
+      <c r="BQ3">
+        <v>0.11</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS3">
+        <v>0.11</v>
+      </c>
+      <c r="BT3">
+        <v>0.11</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV3">
+        <v>0.11</v>
+      </c>
+      <c r="BW3">
+        <v>0.11</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY3">
+        <v>0.11</v>
+      </c>
+      <c r="BZ3">
+        <v>0.11</v>
+      </c>
+      <c r="CA3" t="s">
         <v>114</v>
       </c>
-      <c r="BA3">
-        <v>0.11</v>
-      </c>
-      <c r="BB3">
-        <v>0.11</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD3">
-        <v>0.11</v>
-      </c>
-      <c r="BE3">
-        <v>0.11</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG3">
-        <v>0.11</v>
-      </c>
-      <c r="BH3">
-        <v>0.11</v>
-      </c>
-      <c r="BI3" t="s">
+      <c r="CB3">
+        <v>0.11</v>
+      </c>
+      <c r="CC3">
+        <v>0.11</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE3">
+        <v>0.11</v>
+      </c>
+      <c r="CF3">
+        <v>0.11</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH3">
+        <v>0.11</v>
+      </c>
+      <c r="CI3">
+        <v>0.11</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK3">
+        <v>0.11</v>
+      </c>
+      <c r="CL3">
+        <v>0.11</v>
+      </c>
+      <c r="CM3" t="s">
         <v>115</v>
       </c>
-      <c r="BJ3">
-        <v>0.11</v>
-      </c>
-      <c r="BK3">
-        <v>0.11</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM3">
-        <v>0.11</v>
-      </c>
-      <c r="BN3">
-        <v>0.11</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP3">
-        <v>0.11</v>
-      </c>
-      <c r="BQ3">
-        <v>0.11</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS3">
-        <v>0.11</v>
-      </c>
-      <c r="BT3">
-        <v>0.11</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV3">
-        <v>0.11</v>
-      </c>
-      <c r="BW3">
-        <v>0.11</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY3">
-        <v>0.11</v>
-      </c>
-      <c r="BZ3">
-        <v>0.11</v>
-      </c>
-      <c r="CA3" t="s">
+      <c r="CN3">
+        <v>0.11</v>
+      </c>
+      <c r="CO3">
+        <v>0.11</v>
+      </c>
+      <c r="CP3" t="s">
         <v>115</v>
       </c>
-      <c r="CB3">
-        <v>0.11</v>
-      </c>
-      <c r="CC3">
-        <v>0.11</v>
-      </c>
-      <c r="CD3" t="s">
+      <c r="CQ3">
+        <v>0.11</v>
+      </c>
+      <c r="CR3">
+        <v>0.11</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CT3" t="s">
         <v>117</v>
       </c>
-      <c r="CE3">
-        <v>0.11</v>
-      </c>
-      <c r="CF3">
-        <v>0.11</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH3">
-        <v>0.11</v>
-      </c>
-      <c r="CI3">
-        <v>0.11</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK3">
-        <v>0.11</v>
-      </c>
-      <c r="CL3">
-        <v>0.11</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN3">
-        <v>0.11</v>
-      </c>
-      <c r="CO3">
-        <v>0.11</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ3">
-        <v>0.11</v>
-      </c>
-      <c r="CR3">
-        <v>0.11</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT3" t="s">
+      <c r="CU3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CV3" t="s">
         <v>118</v>
       </c>
-      <c r="CU3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV3" t="s">
+      <c r="CW3" t="s">
         <v>119</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -1769,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1778,25 +1778,25 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" t="s">
         <v>134</v>
       </c>
-      <c r="S4" t="s">
-        <v>138</v>
-      </c>
       <c r="T4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V4" t="s">
         <v>106</v>
       </c>
       <c r="W4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X4">
         <v>4.8</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z4">
         <v>0.11</v>
@@ -1805,7 +1805,7 @@
         <v>0.11</v>
       </c>
       <c r="AB4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC4">
         <v>0.11</v>
@@ -1814,7 +1814,7 @@
         <v>0.11</v>
       </c>
       <c r="AE4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF4">
         <v>0.11</v>
@@ -1823,7 +1823,7 @@
         <v>0.11</v>
       </c>
       <c r="AH4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI4">
         <v>0.11</v>
@@ -1832,7 +1832,7 @@
         <v>0.11</v>
       </c>
       <c r="AK4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL4">
         <v>0.11</v>
@@ -1841,7 +1841,7 @@
         <v>0.11</v>
       </c>
       <c r="AN4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO4">
         <v>0.11</v>
@@ -1850,7 +1850,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR4">
         <v>0.11</v>
@@ -1859,7 +1859,7 @@
         <v>0.11</v>
       </c>
       <c r="AT4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU4">
         <v>0.11</v>
@@ -1868,143 +1868,143 @@
         <v>0.11</v>
       </c>
       <c r="AW4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX4">
+        <v>0.11</v>
+      </c>
+      <c r="AY4">
+        <v>0.11</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA4">
+        <v>0.11</v>
+      </c>
+      <c r="BB4">
+        <v>0.11</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD4">
+        <v>0.11</v>
+      </c>
+      <c r="BE4">
+        <v>0.11</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG4">
+        <v>0.11</v>
+      </c>
+      <c r="BH4">
+        <v>0.11</v>
+      </c>
+      <c r="BI4" t="s">
         <v>114</v>
       </c>
-      <c r="AX4">
-        <v>0.11</v>
-      </c>
-      <c r="AY4">
-        <v>0.11</v>
-      </c>
-      <c r="AZ4" t="s">
+      <c r="BJ4">
+        <v>0.11</v>
+      </c>
+      <c r="BK4">
+        <v>0.11</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM4">
+        <v>0.11</v>
+      </c>
+      <c r="BN4">
+        <v>0.11</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP4">
+        <v>0.11</v>
+      </c>
+      <c r="BQ4">
+        <v>0.11</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS4">
+        <v>0.11</v>
+      </c>
+      <c r="BT4">
+        <v>0.11</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV4">
+        <v>0.11</v>
+      </c>
+      <c r="BW4">
+        <v>0.11</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY4">
+        <v>0.11</v>
+      </c>
+      <c r="BZ4">
+        <v>0.11</v>
+      </c>
+      <c r="CA4" t="s">
         <v>114</v>
       </c>
-      <c r="BA4">
-        <v>0.11</v>
-      </c>
-      <c r="BB4">
-        <v>0.11</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD4">
-        <v>0.11</v>
-      </c>
-      <c r="BE4">
-        <v>0.11</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG4">
-        <v>0.11</v>
-      </c>
-      <c r="BH4">
-        <v>0.11</v>
-      </c>
-      <c r="BI4" t="s">
+      <c r="CB4">
+        <v>0.11</v>
+      </c>
+      <c r="CC4">
+        <v>0.11</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE4">
+        <v>0.11</v>
+      </c>
+      <c r="CF4">
+        <v>0.11</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH4">
+        <v>0.11</v>
+      </c>
+      <c r="CI4">
+        <v>0.11</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK4">
+        <v>0.11</v>
+      </c>
+      <c r="CL4">
+        <v>0.11</v>
+      </c>
+      <c r="CM4" t="s">
         <v>115</v>
       </c>
-      <c r="BJ4">
-        <v>0.11</v>
-      </c>
-      <c r="BK4">
-        <v>0.11</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM4">
-        <v>0.11</v>
-      </c>
-      <c r="BN4">
-        <v>0.11</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP4">
-        <v>0.11</v>
-      </c>
-      <c r="BQ4">
-        <v>0.11</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS4">
-        <v>0.11</v>
-      </c>
-      <c r="BT4">
-        <v>0.11</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV4">
-        <v>0.11</v>
-      </c>
-      <c r="BW4">
-        <v>0.11</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY4">
-        <v>0.11</v>
-      </c>
-      <c r="BZ4">
-        <v>0.11</v>
-      </c>
-      <c r="CA4" t="s">
+      <c r="CN4">
+        <v>0.11</v>
+      </c>
+      <c r="CO4">
+        <v>0.11</v>
+      </c>
+      <c r="CP4" t="s">
         <v>115</v>
       </c>
-      <c r="CB4">
-        <v>0.11</v>
-      </c>
-      <c r="CC4">
-        <v>0.11</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE4">
-        <v>0.11</v>
-      </c>
-      <c r="CF4">
-        <v>0.11</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH4">
-        <v>0.11</v>
-      </c>
-      <c r="CI4">
-        <v>0.11</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK4">
-        <v>0.11</v>
-      </c>
-      <c r="CL4">
-        <v>0.11</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN4">
-        <v>0.11</v>
-      </c>
-      <c r="CO4">
-        <v>0.11</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>116</v>
-      </c>
       <c r="CQ4">
         <v>0.11</v>
       </c>
@@ -2012,21 +2012,21 @@
         <v>0.11</v>
       </c>
       <c r="CS4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CU4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CV4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW4" t="s">
         <v>119</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R5" t="s">
         <v>103</v>
@@ -2077,7 +2077,7 @@
         <v>104</v>
       </c>
       <c r="T5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U5" t="s">
         <v>105</v>
@@ -2086,13 +2086,13 @@
         <v>106</v>
       </c>
       <c r="W5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X5">
         <v>4.8</v>
       </c>
       <c r="Y5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z5">
         <v>0.11</v>
@@ -2101,7 +2101,7 @@
         <v>0.11</v>
       </c>
       <c r="AB5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC5">
         <v>0.11</v>
@@ -2110,7 +2110,7 @@
         <v>0.11</v>
       </c>
       <c r="AE5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF5">
         <v>0.11</v>
@@ -2119,7 +2119,7 @@
         <v>0.11</v>
       </c>
       <c r="AH5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI5">
         <v>0.11</v>
@@ -2128,7 +2128,7 @@
         <v>0.11</v>
       </c>
       <c r="AK5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL5">
         <v>0.11</v>
@@ -2137,7 +2137,7 @@
         <v>0.11</v>
       </c>
       <c r="AN5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO5">
         <v>0.11</v>
@@ -2146,7 +2146,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR5">
         <v>0.11</v>
@@ -2155,7 +2155,7 @@
         <v>0.11</v>
       </c>
       <c r="AT5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU5">
         <v>0.11</v>
@@ -2164,143 +2164,143 @@
         <v>0.11</v>
       </c>
       <c r="AW5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX5">
+        <v>0.11</v>
+      </c>
+      <c r="AY5">
+        <v>0.11</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA5">
+        <v>0.11</v>
+      </c>
+      <c r="BB5">
+        <v>0.11</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD5">
+        <v>0.11</v>
+      </c>
+      <c r="BE5">
+        <v>0.11</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG5">
+        <v>0.11</v>
+      </c>
+      <c r="BH5">
+        <v>0.11</v>
+      </c>
+      <c r="BI5" t="s">
         <v>114</v>
       </c>
-      <c r="AX5">
-        <v>0.11</v>
-      </c>
-      <c r="AY5">
-        <v>0.11</v>
-      </c>
-      <c r="AZ5" t="s">
+      <c r="BJ5">
+        <v>0.11</v>
+      </c>
+      <c r="BK5">
+        <v>0.11</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM5">
+        <v>0.11</v>
+      </c>
+      <c r="BN5">
+        <v>0.11</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP5">
+        <v>0.11</v>
+      </c>
+      <c r="BQ5">
+        <v>0.11</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS5">
+        <v>0.11</v>
+      </c>
+      <c r="BT5">
+        <v>0.11</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV5">
+        <v>0.11</v>
+      </c>
+      <c r="BW5">
+        <v>0.11</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY5">
+        <v>0.11</v>
+      </c>
+      <c r="BZ5">
+        <v>0.11</v>
+      </c>
+      <c r="CA5" t="s">
         <v>114</v>
       </c>
-      <c r="BA5">
-        <v>0.11</v>
-      </c>
-      <c r="BB5">
-        <v>0.11</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD5">
-        <v>0.11</v>
-      </c>
-      <c r="BE5">
-        <v>0.11</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG5">
-        <v>0.11</v>
-      </c>
-      <c r="BH5">
-        <v>0.11</v>
-      </c>
-      <c r="BI5" t="s">
+      <c r="CB5">
+        <v>0.11</v>
+      </c>
+      <c r="CC5">
+        <v>0.11</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE5">
+        <v>0.11</v>
+      </c>
+      <c r="CF5">
+        <v>0.11</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH5">
+        <v>0.11</v>
+      </c>
+      <c r="CI5">
+        <v>0.11</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK5">
+        <v>0.11</v>
+      </c>
+      <c r="CL5">
+        <v>0.11</v>
+      </c>
+      <c r="CM5" t="s">
         <v>115</v>
       </c>
-      <c r="BJ5">
-        <v>0.11</v>
-      </c>
-      <c r="BK5">
-        <v>0.11</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM5">
-        <v>0.11</v>
-      </c>
-      <c r="BN5">
-        <v>0.11</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP5">
-        <v>0.11</v>
-      </c>
-      <c r="BQ5">
-        <v>0.11</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS5">
-        <v>0.11</v>
-      </c>
-      <c r="BT5">
-        <v>0.11</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV5">
-        <v>0.11</v>
-      </c>
-      <c r="BW5">
-        <v>0.11</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY5">
-        <v>0.11</v>
-      </c>
-      <c r="BZ5">
-        <v>0.11</v>
-      </c>
-      <c r="CA5" t="s">
+      <c r="CN5">
+        <v>0.11</v>
+      </c>
+      <c r="CO5">
+        <v>0.11</v>
+      </c>
+      <c r="CP5" t="s">
         <v>115</v>
       </c>
-      <c r="CB5">
-        <v>0.11</v>
-      </c>
-      <c r="CC5">
-        <v>0.11</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE5">
-        <v>0.11</v>
-      </c>
-      <c r="CF5">
-        <v>0.11</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH5">
-        <v>0.11</v>
-      </c>
-      <c r="CI5">
-        <v>0.11</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK5">
-        <v>0.11</v>
-      </c>
-      <c r="CL5">
-        <v>0.11</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN5">
-        <v>0.11</v>
-      </c>
-      <c r="CO5">
-        <v>0.11</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>116</v>
-      </c>
       <c r="CQ5">
         <v>0.11</v>
       </c>
@@ -2308,27 +2308,27 @@
         <v>0.11</v>
       </c>
       <c r="CS5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CT5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="CV5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW5" t="s">
         <v>119</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2367,16 +2367,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="R6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S6" t="s">
         <v>104</v>
       </c>
       <c r="T6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U6" t="s">
         <v>105</v>
@@ -2385,13 +2385,13 @@
         <v>106</v>
       </c>
       <c r="W6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X6">
         <v>4.8</v>
       </c>
       <c r="Y6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z6">
         <v>0.11</v>
@@ -2400,7 +2400,7 @@
         <v>0.11</v>
       </c>
       <c r="AB6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC6">
         <v>0.11</v>
@@ -2409,7 +2409,7 @@
         <v>0.11</v>
       </c>
       <c r="AE6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF6">
         <v>0.11</v>
@@ -2418,7 +2418,7 @@
         <v>0.11</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI6">
         <v>0.11</v>
@@ -2427,7 +2427,7 @@
         <v>0.11</v>
       </c>
       <c r="AK6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL6">
         <v>0.11</v>
@@ -2436,7 +2436,7 @@
         <v>0.11</v>
       </c>
       <c r="AN6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO6">
         <v>0.11</v>
@@ -2445,7 +2445,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR6">
         <v>0.11</v>
@@ -2454,7 +2454,7 @@
         <v>0.11</v>
       </c>
       <c r="AT6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU6">
         <v>0.11</v>
@@ -2463,143 +2463,143 @@
         <v>0.11</v>
       </c>
       <c r="AW6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX6">
+        <v>0.11</v>
+      </c>
+      <c r="AY6">
+        <v>0.11</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA6">
+        <v>0.11</v>
+      </c>
+      <c r="BB6">
+        <v>0.11</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD6">
+        <v>0.11</v>
+      </c>
+      <c r="BE6">
+        <v>0.11</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG6">
+        <v>0.11</v>
+      </c>
+      <c r="BH6">
+        <v>0.11</v>
+      </c>
+      <c r="BI6" t="s">
         <v>114</v>
       </c>
-      <c r="AX6">
-        <v>0.11</v>
-      </c>
-      <c r="AY6">
-        <v>0.11</v>
-      </c>
-      <c r="AZ6" t="s">
+      <c r="BJ6">
+        <v>0.11</v>
+      </c>
+      <c r="BK6">
+        <v>0.11</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM6">
+        <v>0.11</v>
+      </c>
+      <c r="BN6">
+        <v>0.11</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP6">
+        <v>0.11</v>
+      </c>
+      <c r="BQ6">
+        <v>0.11</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS6">
+        <v>0.11</v>
+      </c>
+      <c r="BT6">
+        <v>0.11</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV6">
+        <v>0.11</v>
+      </c>
+      <c r="BW6">
+        <v>0.11</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY6">
+        <v>0.11</v>
+      </c>
+      <c r="BZ6">
+        <v>0.11</v>
+      </c>
+      <c r="CA6" t="s">
         <v>114</v>
       </c>
-      <c r="BA6">
-        <v>0.11</v>
-      </c>
-      <c r="BB6">
-        <v>0.11</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD6">
-        <v>0.11</v>
-      </c>
-      <c r="BE6">
-        <v>0.11</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG6">
-        <v>0.11</v>
-      </c>
-      <c r="BH6">
-        <v>0.11</v>
-      </c>
-      <c r="BI6" t="s">
+      <c r="CB6">
+        <v>0.11</v>
+      </c>
+      <c r="CC6">
+        <v>0.11</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE6">
+        <v>0.11</v>
+      </c>
+      <c r="CF6">
+        <v>0.11</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH6">
+        <v>0.11</v>
+      </c>
+      <c r="CI6">
+        <v>0.11</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK6">
+        <v>0.11</v>
+      </c>
+      <c r="CL6">
+        <v>0.11</v>
+      </c>
+      <c r="CM6" t="s">
         <v>115</v>
       </c>
-      <c r="BJ6">
-        <v>0.11</v>
-      </c>
-      <c r="BK6">
-        <v>0.11</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM6">
-        <v>0.11</v>
-      </c>
-      <c r="BN6">
-        <v>0.11</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP6">
-        <v>0.11</v>
-      </c>
-      <c r="BQ6">
-        <v>0.11</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS6">
-        <v>0.11</v>
-      </c>
-      <c r="BT6">
-        <v>0.11</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV6">
-        <v>0.11</v>
-      </c>
-      <c r="BW6">
-        <v>0.11</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY6">
-        <v>0.11</v>
-      </c>
-      <c r="BZ6">
-        <v>0.11</v>
-      </c>
-      <c r="CA6" t="s">
+      <c r="CN6">
+        <v>0.11</v>
+      </c>
+      <c r="CO6">
+        <v>0.11</v>
+      </c>
+      <c r="CP6" t="s">
         <v>115</v>
       </c>
-      <c r="CB6">
-        <v>0.11</v>
-      </c>
-      <c r="CC6">
-        <v>0.11</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE6">
-        <v>0.11</v>
-      </c>
-      <c r="CF6">
-        <v>0.11</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH6">
-        <v>0.11</v>
-      </c>
-      <c r="CI6">
-        <v>0.11</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK6">
-        <v>0.11</v>
-      </c>
-      <c r="CL6">
-        <v>0.11</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN6">
-        <v>0.11</v>
-      </c>
-      <c r="CO6">
-        <v>0.11</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>116</v>
-      </c>
       <c r="CQ6">
         <v>0.11</v>
       </c>
@@ -2607,27 +2607,27 @@
         <v>0.11</v>
       </c>
       <c r="CS6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="CT6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="CU6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="CV6" t="s">
+        <v>118</v>
+      </c>
+      <c r="CW6" t="s">
         <v>119</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -2657,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -2666,25 +2666,25 @@
         <v>3</v>
       </c>
       <c r="Q7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
         <v>134</v>
       </c>
-      <c r="S7" t="s">
-        <v>138</v>
-      </c>
       <c r="T7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V7" t="s">
         <v>106</v>
       </c>
       <c r="W7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X7">
         <v>4.8</v>
       </c>
       <c r="Y7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z7">
         <v>0.11</v>
@@ -2693,7 +2693,7 @@
         <v>0.11</v>
       </c>
       <c r="AB7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC7">
         <v>0.11</v>
@@ -2702,7 +2702,7 @@
         <v>0.11</v>
       </c>
       <c r="AE7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF7">
         <v>0.11</v>
@@ -2711,7 +2711,7 @@
         <v>0.11</v>
       </c>
       <c r="AH7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AI7">
         <v>0.11</v>
@@ -2720,7 +2720,7 @@
         <v>0.11</v>
       </c>
       <c r="AK7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL7">
         <v>0.11</v>
@@ -2729,7 +2729,7 @@
         <v>0.11</v>
       </c>
       <c r="AN7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO7">
         <v>0.11</v>
@@ -2738,7 +2738,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR7">
         <v>0.11</v>
@@ -2747,7 +2747,7 @@
         <v>0.11</v>
       </c>
       <c r="AT7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AU7">
         <v>0.11</v>
@@ -2756,163 +2756,163 @@
         <v>0.11</v>
       </c>
       <c r="AW7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX7">
+        <v>0.11</v>
+      </c>
+      <c r="AY7">
+        <v>0.11</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA7">
+        <v>0.11</v>
+      </c>
+      <c r="BB7">
+        <v>0.11</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD7">
+        <v>0.11</v>
+      </c>
+      <c r="BE7">
+        <v>0.11</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG7">
+        <v>0.11</v>
+      </c>
+      <c r="BH7">
+        <v>0.11</v>
+      </c>
+      <c r="BI7" t="s">
         <v>114</v>
       </c>
-      <c r="AX7">
-        <v>0.11</v>
-      </c>
-      <c r="AY7">
-        <v>0.11</v>
-      </c>
-      <c r="AZ7" t="s">
+      <c r="BJ7">
+        <v>0.11</v>
+      </c>
+      <c r="BK7">
+        <v>0.11</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM7">
+        <v>0.11</v>
+      </c>
+      <c r="BN7">
+        <v>0.11</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP7">
+        <v>0.11</v>
+      </c>
+      <c r="BQ7">
+        <v>0.11</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS7">
+        <v>0.11</v>
+      </c>
+      <c r="BT7">
+        <v>0.11</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV7">
+        <v>0.11</v>
+      </c>
+      <c r="BW7">
+        <v>0.11</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BY7">
+        <v>0.11</v>
+      </c>
+      <c r="BZ7">
+        <v>0.11</v>
+      </c>
+      <c r="CA7" t="s">
         <v>114</v>
       </c>
-      <c r="BA7">
-        <v>0.11</v>
-      </c>
-      <c r="BB7">
-        <v>0.11</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD7">
-        <v>0.11</v>
-      </c>
-      <c r="BE7">
-        <v>0.11</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BG7">
-        <v>0.11</v>
-      </c>
-      <c r="BH7">
-        <v>0.11</v>
-      </c>
-      <c r="BI7" t="s">
+      <c r="CB7">
+        <v>0.11</v>
+      </c>
+      <c r="CC7">
+        <v>0.11</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE7">
+        <v>0.11</v>
+      </c>
+      <c r="CF7">
+        <v>0.11</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CH7">
+        <v>0.11</v>
+      </c>
+      <c r="CI7">
+        <v>0.11</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK7">
+        <v>0.11</v>
+      </c>
+      <c r="CL7">
+        <v>0.11</v>
+      </c>
+      <c r="CM7" t="s">
         <v>115</v>
       </c>
-      <c r="BJ7">
-        <v>0.11</v>
-      </c>
-      <c r="BK7">
-        <v>0.11</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM7">
-        <v>0.11</v>
-      </c>
-      <c r="BN7">
-        <v>0.11</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BP7">
-        <v>0.11</v>
-      </c>
-      <c r="BQ7">
-        <v>0.11</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BS7">
-        <v>0.11</v>
-      </c>
-      <c r="BT7">
-        <v>0.11</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV7">
-        <v>0.11</v>
-      </c>
-      <c r="BW7">
-        <v>0.11</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY7">
-        <v>0.11</v>
-      </c>
-      <c r="BZ7">
-        <v>0.11</v>
-      </c>
-      <c r="CA7" t="s">
+      <c r="CN7">
+        <v>0.11</v>
+      </c>
+      <c r="CO7">
+        <v>0.11</v>
+      </c>
+      <c r="CP7" t="s">
         <v>115</v>
       </c>
-      <c r="CB7">
-        <v>0.11</v>
-      </c>
-      <c r="CC7">
-        <v>0.11</v>
-      </c>
-      <c r="CD7" t="s">
+      <c r="CQ7">
+        <v>0.11</v>
+      </c>
+      <c r="CR7">
+        <v>0.11</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>115</v>
+      </c>
+      <c r="CT7" t="s">
         <v>117</v>
       </c>
-      <c r="CE7">
-        <v>0.11</v>
-      </c>
-      <c r="CF7">
-        <v>0.11</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH7">
-        <v>0.11</v>
-      </c>
-      <c r="CI7">
-        <v>0.11</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>114</v>
-      </c>
-      <c r="CK7">
-        <v>0.11</v>
-      </c>
-      <c r="CL7">
-        <v>0.11</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CN7">
-        <v>0.11</v>
-      </c>
-      <c r="CO7">
-        <v>0.11</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CQ7">
-        <v>0.11</v>
-      </c>
-      <c r="CR7">
-        <v>0.11</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT7" t="s">
+      <c r="CU7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CV7" t="s">
         <v>118</v>
       </c>
-      <c r="CU7" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV7" t="s">
+      <c r="CW7" t="s">
         <v>119</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
